--- a/output/2017-07-01 to 2017-08-01.xlsx
+++ b/output/2017-07-01 to 2017-08-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -107,7 +107,7 @@
     <t>['cfop_WORK']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
@@ -122,6 +122,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-10-103-02</t>
   </si>
   <si>
@@ -141,6 +144,27 @@
   </si>
   <si>
     <t>2016-08-100-01</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Alexander Hilll', 'Alexander Hill']</t>
+  </si>
+  <si>
+    <t>['Hamidreza Jafarnejadsani']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Nicole Chan']</t>
+  </si>
+  <si>
+    <t>['Karun Koppula']</t>
+  </si>
+  <si>
+    <t>['Mahanth Gowda']</t>
   </si>
   <si>
     <t>cfop_HUTCHINSON</t>
@@ -932,13 +956,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -948,13 +972,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>53</v>
@@ -962,13 +989,16 @@
       <c r="D2">
         <v>33.54430379746835</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -976,13 +1006,16 @@
       <c r="D3">
         <v>25.94936708860759</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -990,13 +1023,16 @@
       <c r="D4">
         <v>22.15189873417722</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>25.5</v>
@@ -1004,13 +1040,16 @@
       <c r="D5">
         <v>16.13924050632911</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1018,13 +1057,16 @@
       <c r="D6">
         <v>1.265822784810127</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1032,19 +1074,25 @@
       <c r="D7">
         <v>0.6329113924050633</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8">
         <v>0.3164556962025317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>106</v>
@@ -1090,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>82</v>
@@ -1104,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>51</v>
@@ -1118,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -1132,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1146,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1160,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1174,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0.5</v>
